--- a/artfynd/A 26749-2025 artfynd.xlsx
+++ b/artfynd/A 26749-2025 artfynd.xlsx
@@ -1488,7 +1488,7 @@
         <v>123520087</v>
       </c>
       <c r="B9" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>125847855</v>
       </c>
       <c r="B10" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>125848524</v>
       </c>
       <c r="B12" t="n">
-        <v>58421</v>
+        <v>58425</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Väg och Miljö AB, Per Karlsson Linderum, Erik Berg</t>
+          <t>Erik Berg, Per Karlsson Linderum, Väg och Miljö AB</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
@@ -2081,7 +2081,7 @@
         <v>125847641</v>
       </c>
       <c r="B14" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/artfynd/A 26749-2025 artfynd.xlsx
+++ b/artfynd/A 26749-2025 artfynd.xlsx
@@ -1950,7 +1950,7 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Erik Berg, Per Karlsson Linderum, Väg och Miljö AB</t>
+          <t>Väg och Miljö AB, Per Karlsson Linderum, Erik Berg</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>

--- a/artfynd/A 26749-2025 artfynd.xlsx
+++ b/artfynd/A 26749-2025 artfynd.xlsx
@@ -1718,7 +1718,7 @@
         <v>125847854</v>
       </c>
       <c r="B11" t="n">
-        <v>58374</v>
+        <v>58605</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>125848529</v>
       </c>
       <c r="B13" t="n">
-        <v>58334</v>
+        <v>58565</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
